--- a/data/trans_dic/P0901-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,88</t>
+          <t>5,84; 11,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,81</t>
+          <t>4,04; 8,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,12</t>
+          <t>6,99; 13,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,95</t>
+          <t>6,17; 11,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 17,15</t>
+          <t>9,48; 17,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 15,7</t>
+          <t>8,52; 16,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,52</t>
+          <t>8,75; 16,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,61</t>
+          <t>10,18; 15,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,17</t>
+          <t>7,93; 12,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,93</t>
+          <t>6,76; 11,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,52</t>
+          <t>8,79; 13,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,49</t>
+          <t>8,78; 12,34</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,95</t>
+          <t>3,28; 8,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 15,6</t>
+          <t>9,02; 15,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,58</t>
+          <t>4,61; 9,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,69</t>
+          <t>7,67; 13,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 13,53</t>
+          <t>7,06; 13,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 15,92</t>
+          <t>8,6; 16,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,59</t>
+          <t>8,24; 15,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 17,05</t>
+          <t>11,68; 17,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,64</t>
+          <t>5,73; 9,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 14,93</t>
+          <t>9,41; 14,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,45</t>
+          <t>6,9; 11,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,39</t>
+          <t>10,31; 14,34</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,36</t>
+          <t>7,49; 12,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 17,52</t>
+          <t>11,37; 17,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,98</t>
+          <t>7,79; 12,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 16,76</t>
+          <t>3,83; 17,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 29,13</t>
+          <t>15,71; 28,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 25,79</t>
+          <t>15,98; 26,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 29,99</t>
+          <t>16,14; 29,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 31,3</t>
+          <t>20,23; 31,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,15</t>
+          <t>10,32; 15,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,81</t>
+          <t>13,6; 19,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,93</t>
+          <t>10,78; 16,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 19,35</t>
+          <t>5,48; 19,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,68</t>
+          <t>9,31; 12,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,34</t>
+          <t>11,93; 16,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,75</t>
+          <t>9,99; 13,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 19,79</t>
+          <t>15,27; 20,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 17,42</t>
+          <t>12,18; 17,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 18,39</t>
+          <t>13,08; 18,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 17,92</t>
+          <t>12,7; 17,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 17,84</t>
+          <t>7,47; 17,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 13,94</t>
+          <t>10,88; 13,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 16,45</t>
+          <t>13,02; 16,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 14,76</t>
+          <t>11,55; 14,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 17,92</t>
+          <t>10,87; 17,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,39</t>
+          <t>8,46; 15,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,91</t>
+          <t>10,85; 16,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 17,96</t>
+          <t>12,1; 17,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,27</t>
+          <t>15,63; 22,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,73; 19,05</t>
+          <t>13,09; 19,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,74; 31,71</t>
+          <t>24,6; 31,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,51; 28,12</t>
+          <t>21,73; 28,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,19; 28,65</t>
+          <t>18,57; 28,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,95; 16,52</t>
+          <t>11,62; 16,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,03; 24,65</t>
+          <t>19,99; 24,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 22,3</t>
+          <t>17,79; 22,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,11; 25,45</t>
+          <t>19,1; 25,41</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,43</t>
+          <t>1,59; 5,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,13</t>
+          <t>2,64; 8,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,47</t>
+          <t>1,2; 5,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,65</t>
+          <t>1,16; 5,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,44; 21,8</t>
+          <t>17,22; 22,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,13; 27,42</t>
+          <t>22,11; 27,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 26,61</t>
+          <t>21,03; 26,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,66; 27,64</t>
+          <t>22,49; 27,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,67; 18,28</t>
+          <t>14,54; 18,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 22,89</t>
+          <t>18,48; 23,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 21,71</t>
+          <t>17,2; 21,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,55; 21,84</t>
+          <t>17,36; 21,76</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 10,15</t>
+          <t>8,19; 10,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 13,33</t>
+          <t>10,97; 13,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,47; 11,53</t>
+          <t>9,55; 11,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,43</t>
+          <t>9,68; 14,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,05; 17,65</t>
+          <t>15,12; 17,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,42; 22,18</t>
+          <t>19,43; 22,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,14; 20,95</t>
+          <t>18,03; 20,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,98</t>
+          <t>15,79; 20,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 13,6</t>
+          <t>11,94; 13,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,56; 17,53</t>
+          <t>15,54; 17,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,08</t>
+          <t>14,16; 16,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,08; 17,47</t>
+          <t>13,95; 17,45</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37863</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26666</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41327</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>42142</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39679</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37228</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42881</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57819</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77543</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63894</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84208</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>99961</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27645; 52834</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17674; 39291</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30011; 57013</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31158; 55634</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29067; 52963</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26777; 50460</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30375; 57365</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45555; 70465</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61921; 95172</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>50778; 83418</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>68245; 104188</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>83693; 117569</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19055</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49519</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25325</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47084</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37137</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40284</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42070</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54786</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56191</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89803</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>67394</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>101870</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12039; 30398</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37794; 65249</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17402; 37654</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34662; 62530</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26264; 48445</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29085; 56025</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30672; 57730</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44672; 65537</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>42308; 73311</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>71212; 109414</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>51732; 85147</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>86039; 119681</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>53055</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>89399</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53496</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67874</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36641</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>53760</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37120</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41996</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>89696</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>143159</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>90616</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109870</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40645; 66495</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>71537; 110445</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40640; 67607</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25549; 114979</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26350; 48228</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41574; 69010</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26807; 49121</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33770; 52613</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>73315; 108907</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>121012; 170303</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74139; 110135</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45766; 163046</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>135791</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>163258</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>136069</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>180644</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>104920</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>120058</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>123784</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132522</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>240712</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>283316</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>259853</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>313166</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>115227; 157405</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>138257; 188321</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114866; 157360</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>157952; 207465</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87033; 123750</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100257; 140286</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>104873; 145809</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>73026; 174446</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>212424; 269332</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>250639; 315913</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>228112; 290436</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>218770; 360850</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>40196</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>69586</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91344</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>91350</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>88905</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>213718</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>182181</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>207300</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>129101</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>283304</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>273525</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>298650</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29673; 53385</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>55385; 85584</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75128; 111138</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>74087; 108527</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>74446; 108945</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>187307; 239451</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>160443; 207545</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>156001; 240619</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>106813; 148190</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>254251; 313998</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>241744; 304084</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>251080; 333980</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9559</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12896</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8139</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6092</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>243777</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>272670</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>257970</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>191132</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>253336</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>285567</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>266109</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>197225</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4751; 16552</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7038; 21570</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3451; 15924</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2784; 12913</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>215082; 275002</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>245267; 304729</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>227550; 289806</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>171261; 212357</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>225000; 281828</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>254273; 316961</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>235564; 298132</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>173888; 218051</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1242</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1756</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>295518</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>411325</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>355699</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>435187</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>551060</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>737719</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>686006</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>685554</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>846579</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1149043</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1041705</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1120742</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>267777; 334307</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>375517; 455038</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>323244; 393483</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>326760; 486415</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>510745; 595016</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>689783; 788054</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>636917; 734214</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>564575; 745315</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>793613; 897589</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1083315; 1216770</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>979603; 1107599</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>969381; 1213108</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P0901-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
